--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0dbc153196371d5/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Develop_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{EC00F0FE-A5D4-4D06-B7E5-0DB30E16970E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C99224D-B617-4BDC-BD70-A865EC4CD9FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDB6946-EF2C-4344-B562-AC2418B98CB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{763CB05E-9BFD-4B6B-825B-022FB82FE4E2}"/>
   </bookViews>
@@ -26,8 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -188,13 +188,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,47 +512,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3005D7F-C563-45FE-BB6B-736291B4A603}">
   <dimension ref="A2:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
       <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,60 +891,14 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
@@ -959,16 +915,63 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>